--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.058019285175099</v>
+        <v>3.058095216751099</v>
       </c>
       <c r="B1">
-        <v>2.695136136443619</v>
+        <v>6.354019165039062</v>
       </c>
       <c r="C1">
-        <v>2.779464064498458</v>
+        <v>6.599575996398926</v>
       </c>
       <c r="D1">
-        <v>0.7922301602535232</v>
+        <v>7.064857482910156</v>
       </c>
       <c r="E1">
-        <v>0.6206623655180529</v>
+        <v>5.016282081604004</v>
       </c>
     </row>
   </sheetData>
